--- a/学员技术考核成绩(数据）4).xlsx
+++ b/学员技术考核成绩(数据）4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="13455" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="张雅鑫" sheetId="1" r:id="rId1"/>
@@ -1305,13 +1305,13 @@
       <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1428,13 +1428,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1551,13 +1551,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1674,13 +1674,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1794,16 +1794,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O7:O8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1897,7 +1897,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" ht="41.1" customHeight="1" spans="7:7">
+    <row r="7" ht="41.1" customHeight="1" spans="5:7">
+      <c r="E7">
+        <v>111</v>
+      </c>
       <c r="G7">
         <v>11</v>
       </c>
@@ -1928,13 +1931,13 @@
       <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2051,13 +2054,13 @@
       <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2174,13 +2177,13 @@
       <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2297,13 +2300,13 @@
       <selection activeCell="C8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2420,13 +2423,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2543,13 +2546,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2666,13 +2669,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2789,13 +2792,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
-    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/学员技术考核成绩(数据）4).xlsx
+++ b/学员技术考核成绩(数据）4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13455" firstSheet="2" activeTab="12"/>
+    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="张雅鑫" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="24">
   <si>
     <t>学员技术考核成绩</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>王文阁</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -1305,13 +1308,13 @@
       <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1428,13 +1431,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1551,13 +1554,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1674,13 +1677,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1791,19 +1794,19 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,7 +1840,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" ht="47.1" customHeight="1" spans="1:6">
+    <row r="4" ht="47.1" customHeight="1" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1855,6 +1858,9 @@
       </c>
       <c r="F4" s="5">
         <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="41.1" customHeight="1" spans="1:6">
@@ -1931,13 +1937,13 @@
       <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2054,13 +2060,13 @@
       <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2177,13 +2183,13 @@
       <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2300,13 +2306,13 @@
       <selection activeCell="C8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2423,13 +2429,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2546,13 +2552,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2669,13 +2675,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2792,13 +2798,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8.12727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
